--- a/biology/Mycologie/Bipolaris_maydis/Bipolaris_maydis.xlsx
+++ b/biology/Mycologie/Bipolaris_maydis/Bipolaris_maydis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bipolaris maydis est une espèce de champignons ascomycètes de la famille des Pleosporaceae.
 Ce champignon est responsable de l'helminthosporiose du maïs
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (4 septembre 2014)[1]. :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (4 septembre 2014). :
 Cochliobolus heterostrophus (Drechsler) Drechsler 1934 (téléomorphe),
 Drechslera maydis (Y. Nisik. &amp; C. Miyake) Subram. &amp; B.L. Jain 1966,
 Helminthosporium maydis Y. Nisik. &amp; C. Miyake 1926,
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'aire de répartition de cette espèce s'étend dans plusieurs continents et comprend notamment les pays suivants[2] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'aire de répartition de cette espèce s'étend dans plusieurs continents et comprend notamment les pays suivants : 
 Afrique : Afrique du Sud, Congo, Égypte, Ghana, Guinée, Malawi, Nigeria, Soudan, Swaziland, Zambie, Zimbabwe
 Amérique : Bahamas, Bolivie, Cuba, États-Unis, Guatemala, Guyana, Jamaïque, Panama,
 Asie :  Bhoutan,  Brunei, Chine, Malaisie, Pakistan, Philippines, Taïwan, Thaïlande,
